--- a/team_specific_matrix/Radford_B.xlsx
+++ b/team_specific_matrix/Radford_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1732673267326733</v>
+        <v>0.1811594202898551</v>
       </c>
       <c r="C2">
-        <v>0.594059405940594</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.009900990099009901</v>
+        <v>0.0108695652173913</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1237623762376238</v>
+        <v>0.1231884057971015</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09900990099009901</v>
+        <v>0.1014492753623188</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.03225806451612903</v>
+        <v>0.02958579881656805</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02419354838709677</v>
+        <v>0.05917159763313609</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -596,10 +596,10 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.008064516129032258</v>
+        <v>0.005917159763313609</v>
       </c>
       <c r="P3">
-        <v>0.7419354838709677</v>
+        <v>0.7100591715976331</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1935483870967742</v>
+        <v>0.1952662721893491</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06666666666666667</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6</v>
+        <v>0.5964912280701754</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3333333333333333</v>
+        <v>0.3508771929824561</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.075</v>
+        <v>0.06341463414634146</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0125</v>
+        <v>0.01463414634146342</v>
       </c>
       <c r="E6">
-        <v>0.0125</v>
+        <v>0.00975609756097561</v>
       </c>
       <c r="F6">
-        <v>0.075</v>
+        <v>0.07804878048780488</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.36875</v>
+        <v>0.375609756097561</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0125</v>
+        <v>0.01463414634146342</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1375</v>
+        <v>0.1317073170731707</v>
       </c>
       <c r="R6">
-        <v>0.05625</v>
+        <v>0.05365853658536585</v>
       </c>
       <c r="S6">
-        <v>0.25</v>
+        <v>0.2585365853658537</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1259842519685039</v>
+        <v>0.119496855345912</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.07874015748031496</v>
+        <v>0.06289308176100629</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.05511811023622047</v>
+        <v>0.05031446540880503</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1496062992125984</v>
+        <v>0.1509433962264151</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01574803149606299</v>
+        <v>0.01257861635220126</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1653543307086614</v>
+        <v>0.1761006289308176</v>
       </c>
       <c r="R7">
-        <v>0.07874015748031496</v>
+        <v>0.09433962264150944</v>
       </c>
       <c r="S7">
-        <v>0.3307086614173229</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08708708708708708</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.009009009009009009</v>
+        <v>0.01995565410199556</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.03603603603603604</v>
+        <v>0.04212860310421286</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1591591591591592</v>
+        <v>0.1574279379157428</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02702702702702703</v>
+        <v>0.01995565410199556</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1651651651651652</v>
+        <v>0.1507760532150776</v>
       </c>
       <c r="R8">
-        <v>0.0960960960960961</v>
+        <v>0.09312638580931264</v>
       </c>
       <c r="S8">
-        <v>0.4204204204204204</v>
+        <v>0.4257206208425721</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09271523178807947</v>
+        <v>0.0855614973262032</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03973509933774835</v>
+        <v>0.03208556149732621</v>
       </c>
       <c r="E9">
-        <v>0.006622516556291391</v>
+        <v>0.0053475935828877</v>
       </c>
       <c r="F9">
-        <v>0.02649006622516556</v>
+        <v>0.0267379679144385</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1589403973509934</v>
+        <v>0.1443850267379679</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.006622516556291391</v>
+        <v>0.0053475935828877</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2317880794701987</v>
+        <v>0.2299465240641711</v>
       </c>
       <c r="R9">
-        <v>0.07947019867549669</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="S9">
-        <v>0.3576158940397351</v>
+        <v>0.3796791443850268</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1098265895953757</v>
+        <v>0.1172893136403128</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.03005780346820809</v>
+        <v>0.02780191138140747</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.0008688097306689834</v>
       </c>
       <c r="F10">
-        <v>0.06820809248554913</v>
+        <v>0.06168549087749783</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1179190751445087</v>
+        <v>0.1277150304083406</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01965317919075145</v>
+        <v>0.01737619461337967</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2161849710982659</v>
+        <v>0.2137271937445699</v>
       </c>
       <c r="R10">
-        <v>0.08901734104046242</v>
+        <v>0.08079930495221546</v>
       </c>
       <c r="S10">
-        <v>0.3491329479768786</v>
+        <v>0.3527367506516073</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1477272727272727</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09659090909090909</v>
+        <v>0.1071428571428571</v>
       </c>
       <c r="K11">
-        <v>0.1818181818181818</v>
+        <v>0.1830357142857143</v>
       </c>
       <c r="L11">
-        <v>0.5738636363636364</v>
+        <v>0.5669642857142857</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7904761904761904</v>
+        <v>0.7938931297709924</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1714285714285714</v>
+        <v>0.1755725190839695</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.01904761904761905</v>
+        <v>0.01526717557251908</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01904761904761905</v>
+        <v>0.01526717557251908</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7241379310344828</v>
+        <v>0.675</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2758620689655172</v>
+        <v>0.3</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.006622516556291391</v>
+        <v>0.0154639175257732</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1788079470198675</v>
+        <v>0.2010309278350516</v>
       </c>
       <c r="I15">
-        <v>0.08609271523178808</v>
+        <v>0.07731958762886598</v>
       </c>
       <c r="J15">
-        <v>0.2980132450331126</v>
+        <v>0.2989690721649484</v>
       </c>
       <c r="K15">
-        <v>0.04635761589403974</v>
+        <v>0.04639175257731959</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01324503311258278</v>
+        <v>0.0154639175257732</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.08609271523178808</v>
+        <v>0.06701030927835051</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2847682119205298</v>
+        <v>0.2783505154639175</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01398601398601399</v>
+        <v>0.0160427807486631</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1888111888111888</v>
+        <v>0.1657754010695187</v>
       </c>
       <c r="I16">
-        <v>0.07692307692307693</v>
+        <v>0.06417112299465241</v>
       </c>
       <c r="J16">
-        <v>0.4825174825174825</v>
+        <v>0.5133689839572193</v>
       </c>
       <c r="K16">
-        <v>0.08391608391608392</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02797202797202797</v>
+        <v>0.0213903743315508</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04895104895104895</v>
+        <v>0.053475935828877</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.07692307692307693</v>
+        <v>0.0748663101604278</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.05607476635514019</v>
+        <v>0.05596107055961071</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1869158878504673</v>
+        <v>0.1873479318734793</v>
       </c>
       <c r="I17">
-        <v>0.08099688473520249</v>
+        <v>0.07785888077858881</v>
       </c>
       <c r="J17">
-        <v>0.3738317757009346</v>
+        <v>0.3673965936739659</v>
       </c>
       <c r="K17">
-        <v>0.06230529595015576</v>
+        <v>0.06326034063260341</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01557632398753894</v>
+        <v>0.0194647201946472</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.08722741433021806</v>
+        <v>0.07785888077858881</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1370716510903427</v>
+        <v>0.1508515815085158</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.03571428571428571</v>
+        <v>0.03954802259887006</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2142857142857143</v>
+        <v>0.2203389830508475</v>
       </c>
       <c r="I18">
-        <v>0.08571428571428572</v>
+        <v>0.0847457627118644</v>
       </c>
       <c r="J18">
-        <v>0.35</v>
+        <v>0.3559322033898305</v>
       </c>
       <c r="K18">
-        <v>0.1071428571428571</v>
+        <v>0.0847457627118644</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.007142857142857143</v>
+        <v>0.005649717514124294</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.04285714285714286</v>
+        <v>0.05649717514124294</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1571428571428571</v>
+        <v>0.1525423728813559</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02663438256658596</v>
+        <v>0.02321428571428572</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2300242130750605</v>
+        <v>0.2366071428571428</v>
       </c>
       <c r="I19">
-        <v>0.1077481840193705</v>
+        <v>0.1008928571428571</v>
       </c>
       <c r="J19">
-        <v>0.3450363196125908</v>
+        <v>0.3392857142857143</v>
       </c>
       <c r="K19">
-        <v>0.1065375302663438</v>
+        <v>0.1</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02179176755447942</v>
+        <v>0.02321428571428572</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.0008928571428571428</v>
       </c>
       <c r="O19">
-        <v>0.05690072639225181</v>
+        <v>0.0625</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1053268765133172</v>
+        <v>0.1133928571428571</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Radford_B.xlsx
+++ b/team_specific_matrix/Radford_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1811594202898551</v>
+        <v>0.1830508474576271</v>
       </c>
       <c r="C2">
-        <v>0.5833333333333334</v>
+        <v>0.576271186440678</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0108695652173913</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1231884057971015</v>
+        <v>0.1254237288135593</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1014492753623188</v>
+        <v>0.09830508474576272</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.02958579881656805</v>
+        <v>0.02840909090909091</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.05917159763313609</v>
+        <v>0.0625</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -596,10 +596,10 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.005917159763313609</v>
+        <v>0.005681818181818182</v>
       </c>
       <c r="P3">
-        <v>0.7100591715976331</v>
+        <v>0.7102272727272727</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1952662721893491</v>
+        <v>0.1931818181818182</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05263157894736842</v>
+        <v>0.04918032786885246</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5964912280701754</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3508771929824561</v>
+        <v>0.3442622950819672</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06341463414634146</v>
+        <v>0.06493506493506493</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01463414634146342</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="E6">
-        <v>0.00975609756097561</v>
+        <v>0.008658008658008658</v>
       </c>
       <c r="F6">
-        <v>0.07804878048780488</v>
+        <v>0.06926406926406926</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.375609756097561</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01463414634146342</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1317073170731707</v>
+        <v>0.1255411255411255</v>
       </c>
       <c r="R6">
-        <v>0.05365853658536585</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="S6">
-        <v>0.2585365853658537</v>
+        <v>0.2640692640692641</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.119496855345912</v>
+        <v>0.1160220994475138</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.06289308176100629</v>
+        <v>0.06629834254143646</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.05031446540880503</v>
+        <v>0.04419889502762431</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1509433962264151</v>
+        <v>0.1546961325966851</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01257861635220126</v>
+        <v>0.01104972375690608</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1761006289308176</v>
+        <v>0.1602209944751381</v>
       </c>
       <c r="R7">
-        <v>0.09433962264150944</v>
+        <v>0.09392265193370165</v>
       </c>
       <c r="S7">
-        <v>0.3333333333333333</v>
+        <v>0.3535911602209945</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09090909090909091</v>
+        <v>0.08383233532934131</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01995565410199556</v>
+        <v>0.01796407185628742</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.04212860310421286</v>
+        <v>0.03992015968063872</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1574279379157428</v>
+        <v>0.1516966067864272</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01995565410199556</v>
+        <v>0.01996007984031936</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1507760532150776</v>
+        <v>0.1596806387225549</v>
       </c>
       <c r="R8">
-        <v>0.09312638580931264</v>
+        <v>0.1017964071856287</v>
       </c>
       <c r="S8">
-        <v>0.4257206208425721</v>
+        <v>0.4251497005988024</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.0855614973262032</v>
+        <v>0.07766990291262135</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03208556149732621</v>
+        <v>0.02912621359223301</v>
       </c>
       <c r="E9">
-        <v>0.0053475935828877</v>
+        <v>0.004854368932038835</v>
       </c>
       <c r="F9">
-        <v>0.0267379679144385</v>
+        <v>0.02912621359223301</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1443850267379679</v>
+        <v>0.1504854368932039</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.0053475935828877</v>
+        <v>0.009708737864077669</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2299465240641711</v>
+        <v>0.2233009708737864</v>
       </c>
       <c r="R9">
-        <v>0.09090909090909091</v>
+        <v>0.0970873786407767</v>
       </c>
       <c r="S9">
-        <v>0.3796791443850268</v>
+        <v>0.3786407766990291</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1172893136403128</v>
+        <v>0.1129283489096573</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02780191138140747</v>
+        <v>0.0264797507788162</v>
       </c>
       <c r="E10">
-        <v>0.0008688097306689834</v>
+        <v>0.000778816199376947</v>
       </c>
       <c r="F10">
-        <v>0.06168549087749783</v>
+        <v>0.06619937694704049</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1277150304083406</v>
+        <v>0.1292834890965732</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01737619461337967</v>
+        <v>0.01557632398753894</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2137271937445699</v>
+        <v>0.2110591900311526</v>
       </c>
       <c r="R10">
-        <v>0.08079930495221546</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="S10">
-        <v>0.3527367506516073</v>
+        <v>0.3543613707165109</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1428571428571428</v>
+        <v>0.1346153846153846</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1071428571428571</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="K11">
-        <v>0.1830357142857143</v>
+        <v>0.1807692307692308</v>
       </c>
       <c r="L11">
-        <v>0.5669642857142857</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7938931297709924</v>
+        <v>0.7935483870967742</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1755725190839695</v>
+        <v>0.167741935483871</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.01526717557251908</v>
+        <v>0.02580645161290323</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01526717557251908</v>
+        <v>0.01290322580645161</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.675</v>
+        <v>0.6585365853658537</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3</v>
+        <v>0.3170731707317073</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.025</v>
+        <v>0.02439024390243903</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.0154639175257732</v>
+        <v>0.01408450704225352</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.2010309278350516</v>
+        <v>0.2065727699530517</v>
       </c>
       <c r="I15">
-        <v>0.07731958762886598</v>
+        <v>0.07981220657276995</v>
       </c>
       <c r="J15">
-        <v>0.2989690721649484</v>
+        <v>0.3004694835680751</v>
       </c>
       <c r="K15">
-        <v>0.04639175257731959</v>
+        <v>0.04694835680751173</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.0154639175257732</v>
+        <v>0.01408450704225352</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.06701030927835051</v>
+        <v>0.06572769953051644</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2783505154639175</v>
+        <v>0.2723004694835681</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.0160427807486631</v>
+        <v>0.02010050251256281</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1657754010695187</v>
+        <v>0.1608040201005025</v>
       </c>
       <c r="I16">
-        <v>0.06417112299465241</v>
+        <v>0.07035175879396985</v>
       </c>
       <c r="J16">
-        <v>0.5133689839572193</v>
+        <v>0.507537688442211</v>
       </c>
       <c r="K16">
-        <v>0.09090909090909091</v>
+        <v>0.09045226130653267</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.0213903743315508</v>
+        <v>0.02010050251256281</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.053475935828877</v>
+        <v>0.05527638190954774</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.0748663101604278</v>
+        <v>0.07537688442211055</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.05596107055961071</v>
+        <v>0.05286343612334802</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1873479318734793</v>
+        <v>0.1850220264317181</v>
       </c>
       <c r="I17">
-        <v>0.07785888077858881</v>
+        <v>0.07929515418502203</v>
       </c>
       <c r="J17">
-        <v>0.3673965936739659</v>
+        <v>0.3766519823788546</v>
       </c>
       <c r="K17">
-        <v>0.06326034063260341</v>
+        <v>0.07048458149779736</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.0194647201946472</v>
+        <v>0.01762114537444934</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.07785888077858881</v>
+        <v>0.07048458149779736</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1508515815085158</v>
+        <v>0.1475770925110132</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.03954802259887006</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2203389830508475</v>
+        <v>0.2270531400966184</v>
       </c>
       <c r="I18">
-        <v>0.0847457627118644</v>
+        <v>0.0821256038647343</v>
       </c>
       <c r="J18">
-        <v>0.3559322033898305</v>
+        <v>0.3526570048309179</v>
       </c>
       <c r="K18">
-        <v>0.0847457627118644</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.005649717514124294</v>
+        <v>0.004830917874396135</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05649717514124294</v>
+        <v>0.05314009661835749</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1525423728813559</v>
+        <v>0.1497584541062802</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02321428571428572</v>
+        <v>0.02329317269076305</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2366071428571428</v>
+        <v>0.236144578313253</v>
       </c>
       <c r="I19">
-        <v>0.1008928571428571</v>
+        <v>0.09718875502008033</v>
       </c>
       <c r="J19">
-        <v>0.3392857142857143</v>
+        <v>0.3381526104417671</v>
       </c>
       <c r="K19">
-        <v>0.1</v>
+        <v>0.1044176706827309</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02321428571428572</v>
+        <v>0.02168674698795181</v>
       </c>
       <c r="N19">
-        <v>0.0008928571428571428</v>
+        <v>0.0008032128514056225</v>
       </c>
       <c r="O19">
-        <v>0.0625</v>
+        <v>0.06506024096385542</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1133928571428571</v>
+        <v>0.1132530120481928</v>
       </c>
     </row>
   </sheetData>
